--- a/protocols/library_adapters.xlsx
+++ b/protocols/library_adapters.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max/Documents/Lab Documents/Weissman Lab/CRISPR/Protocols/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/mnt/goodarzi/avicenna/Johnny/lib_design/protocols/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469D6C08-9F15-8D41-95B9-D6CB146D38C7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1620" yWindow="460" windowWidth="23980" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_adapters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -800,8 +801,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -852,12 +853,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -869,6 +870,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1136,14 +1140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
@@ -1152,30 +1156,30 @@
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1203,22 +1207,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1302,22 +1306,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1345,22 +1349,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1458,7 +1462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1486,7 +1490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -1542,22 +1546,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -1599,7 +1603,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -1641,7 +1645,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -1669,7 +1673,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -1683,7 +1687,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -1697,7 +1701,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -1711,7 +1715,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -1809,23 +1813,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>173</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>177</v>
       </c>
@@ -1979,7 +1983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>181</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>213</v>
       </c>
@@ -2105,7 +2109,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>217</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>225</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>237</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>241</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>249</v>
       </c>
